--- a/05_Win32Api/013 互斥体(内核对象).xlsx
+++ b/05_Win32Api/013 互斥体(内核对象).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\05_Win32Api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BBA3C1-47ED-4F28-BEF6-7A11D78F0334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199CD4FD-0FEB-4EAA-AA1E-8B8A04F2F710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
   <si>
     <t>抢红包练习：</t>
   </si>
@@ -301,6 +301,22 @@
   </si>
   <si>
     <t>HANDLE g_hMutex = CreateMutex(NULL,FALSE, "XYZ");</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    互斥锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>// param2 若为TRUE,当前线程就用了该互斥锁，</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaitForSingleObject(g_hMutex,INFINITE);  // param2 修改为 TRUE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReleaseMutex(g_hMutex);  // param2 修改为 FALSE</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -318,12 +334,14 @@
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -331,6 +349,7 @@
       <sz val="12"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -338,11 +357,13 @@
       <sz val="12"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -944,8 +965,8 @@
   </sheetPr>
   <dimension ref="B3:G39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -978,7 +999,9 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
@@ -1743,8 +1766,8 @@
   </sheetPr>
   <dimension ref="B4:Q42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1788,6 +1811,9 @@
       <c r="Q6" s="10"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
@@ -1855,7 +1881,7 @@
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -1901,7 +1927,7 @@
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
